--- a/testdata/qualitypointtech.xlsx
+++ b/testdata/qualitypointtech.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>Password</t>
   </si>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>VsrqYsC@gmail.com</t>
+  </si>
+  <si>
+    <t>yBJXZIR</t>
+  </si>
+  <si>
+    <t>pjfnwJu@gmail.com</t>
+  </si>
+  <si>
+    <t>kjwjJtY</t>
+  </si>
+  <si>
+    <t>RZeDzsI@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -704,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -719,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>14</v>
